--- a/controller/data.xlsx
+++ b/controller/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\代码\学习\nodejs学习\上传文件\2_23\controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778B5B9-829B-4A7D-B5CD-2468B538C2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C10FC-1B49-47E8-8FFF-8386E56C16F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="1700" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>名字</t>
   </si>
@@ -63,13 +63,33 @@
   </si>
   <si>
     <t>EC</t>
+  </si>
+  <si>
+    <t>Eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>747212248@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robertpierce2828@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1650257238@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +102,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,14 +130,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -446,13 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +506,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -476,11 +520,14 @@
       <c r="C2">
         <v>13137336207</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>36504</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -490,15 +537,40 @@
       <c r="C3">
         <v>13126572563</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>36565</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>4001001999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35067</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{89037990-0A59-4E09-BE25-4D9A62D2F070}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{78047572-6400-4D3F-8098-A00BF06C32AF}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F21DAE9B-0999-4A08-B1D7-00470CBE7CF1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A3:C3 A2:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -507,13 +579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -527,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -541,7 +613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
